--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2831.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2831.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.1730465770488</v>
+        <v>1.124796628952026</v>
       </c>
       <c r="B1">
-        <v>2.439528370241689</v>
+        <v>2.433515310287476</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>5.168681144714355</v>
       </c>
       <c r="D1">
-        <v>2.361819321824973</v>
+        <v>2.198970794677734</v>
       </c>
       <c r="E1">
-        <v>1.236887242409626</v>
+        <v>1.263920903205872</v>
       </c>
     </row>
   </sheetData>
